--- a/data/trans_bre/P25A_4_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_4_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,40 +652,60 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,24%</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-53,69%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-61,9%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -668,27 +720,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 3,89</t>
+          <t>-3,51; 1,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,48</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,09</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,19; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,47; 0,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -702,6 +754,26 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -725,37 +797,57 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,92</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>73,65%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>36,04%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>78,44%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>43,73%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -773,22 +865,22 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,89</t>
+          <t>-1,13; 1,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,5</t>
+          <t>-1,38; 1,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,22; 70,32</t>
+          <t>-3,8; 3,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 5,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -803,7 +895,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,12; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-33,82</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>315,77%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-33,82%</t>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>345,73%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-38,45%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
         </is>
       </c>
     </row>
@@ -868,32 +1000,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,0</t>
+          <t>-2,3; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,96</t>
+          <t>0,24; 1,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,13</t>
+          <t>-0,0; 2,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-82,19; 0,0</t>
+          <t>-3,67; 1,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,88; 5,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 1,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +1035,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-82,19; 0,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,09</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>75,06%</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>70,68%</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,65%</t>
+          <t>82,17%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>39,53%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>169,74%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>120,81%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>167,98%</t>
         </is>
       </c>
     </row>
@@ -968,32 +1140,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,88</t>
+          <t>-0,83; 2,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,4</t>
+          <t>-0,89; 2,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,84</t>
+          <t>-0,99; 2,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,57; 68,4</t>
+          <t>-0,37; 4,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 5,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 3,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1175,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,52; —</t>
+          <t>-76,35; 1359,2</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-53,66; inf</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-80,55%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>19,26%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-79,69%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-29,07%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-20,49%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,86%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 3,9</t>
+          <t>-2,85; 3,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 3,2</t>
+          <t>-2,23; 4,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,74; -0,85</t>
+          <t>-10,47; -0,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 39,58</t>
+          <t>-7,34; 2,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-80,01; 605,22</t>
+          <t>-6,06; 3,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-69,47; 221,49</t>
+          <t>-3,5; 3,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -15,64</t>
+          <t>-84,17; 548,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,31; 88,5</t>
+          <t>-58,76; 309,77</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -22,67</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-74,58; 71,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-68,06; 114,77</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-79,55; 260,5</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,54</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,33</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-29,66%</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-65,28%</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-7,63%</t>
+          <t>-20,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>-62,51%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8,3%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-77,64%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35,01%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-7,3%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 3,43</t>
+          <t>-6,51; 4,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -0,87</t>
+          <t>-11,49; -0,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 4,9</t>
+          <t>-4,54; 8,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-52,27; 69,57</t>
+          <t>-9,02; -0,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,8; 141,84</t>
+          <t>-3,17; 6,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-90,74; 3,32</t>
+          <t>-6,16; 4,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-73,17; 216,09</t>
+          <t>-83,42; 203,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 266,65</t>
+          <t>-89,79; 26,24</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-63,9; 355,17</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-57,01; 352,39</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-77,3; 176,45</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,41</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,65%</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-13,69%</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-7,75%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>-10,73%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-30,67%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>58,99%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>19,26%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,12</t>
+          <t>-1,2; 1,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,8</t>
+          <t>-1,44; 0,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,09</t>
+          <t>-1,11; 1,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 33,99</t>
+          <t>-2,27; 0,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-56,49; 132,04</t>
+          <t>-0,16; 2,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-54,0; 61,11</t>
+          <t>-0,81; 1,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-51,35; 104,62</t>
+          <t>-59,54; 125,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 87,36</t>
+          <t>-52,17; 64,45</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-49,69; 131,01</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-60,26; 22,94</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-9,27; 168,62</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-39,77; 131,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
